--- a/V1.0/Sklad.xlsx
+++ b/V1.0/Sklad.xlsx
@@ -349,12 +349,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -370,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,7 +391,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,7 +719,7 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,25 +893,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="8">
         <v>1.69</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="8">
         <f>E11*D11</f>
         <v>13.52</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -996,26 +1009,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
         <v>13.81</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="8">
         <v>13.81</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1040,159 +1053,159 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
         <v>9.49</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="8">
         <v>9.49</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="8">
         <v>315</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="8">
         <v>2</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="8">
         <v>11.85</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="8">
         <f>E20*D20</f>
         <v>23.7</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" t="s">
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="8">
         <v>280</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="8">
         <v>2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="8">
         <v>11.85</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="8">
         <f t="shared" ref="F21:F22" si="0">E21*D21</f>
         <v>23.7</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s">
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="8">
         <v>330</v>
       </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
         <v>11.85</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="8">
         <f t="shared" si="0"/>
         <v>11.85</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="8">
         <v>380</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="8">
         <v>2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="8">
         <v>17.670000000000002</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="8">
         <f>E23*D23</f>
         <v>35.340000000000003</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" t="s">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="8">
         <v>320</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
         <v>17.670000000000002</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="8">
         <f>E24*D24</f>
         <v>17.670000000000002</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
         <v>8.6</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="8">
         <v>8.6</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1218,110 +1231,110 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
         <v>5</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="8">
         <v>5</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>10</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
         <v>2</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="8">
         <v>37.369999999999997</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="8">
         <f>E28*D28</f>
         <v>74.739999999999995</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
         <v>9.99</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="8">
         <v>9.99</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
         <v>7.66</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="8">
         <v>7.66</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>4</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
         <v>5</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="8">
         <v>1.2</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="8">
         <f>E31*D31</f>
         <v>6</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1369,46 +1382,46 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
         <v>1.68</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="8">
         <v>1.68</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
         <f>907/25</f>
         <v>36.28</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="8">
         <v>36.28</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2131,28 +2144,28 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+    <row r="72" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
         <v>4</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D72" s="1">
-        <v>1</v>
-      </c>
-      <c r="E72">
+      <c r="D72" s="8">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7">
         <f>169/25</f>
         <v>6.76</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="7">
         <f>E72*D72</f>
         <v>6.76</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="7" t="s">
         <v>97</v>
       </c>
     </row>
